--- a/02_data/ingresos_volumen.xlsx
+++ b/02_data/ingresos_volumen.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24131"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Trabajo\111_Ale\not_opticliente\02_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4AEE4BE6-B53F-42D5-B939-0BC8D8BB7D8D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{820A21D2-B66C-44F9-AE80-2E21C23C28D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="830" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="384" yWindow="384" windowWidth="17280" windowHeight="8964" tabRatio="830" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="prioridades" sheetId="1" state="hidden" r:id="rId1"/>
@@ -5278,8 +5278,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A4C73B43-FFAA-4A99-89BF-79633160357D}">
   <dimension ref="A1:C85"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+    <sheetView tabSelected="1" topLeftCell="A70" workbookViewId="0">
+      <selection activeCell="C84" sqref="C84"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5374,7 +5374,6 @@
         <v>1</v>
       </c>
       <c r="C8">
-        <f>C2</f>
         <v>20</v>
       </c>
     </row>
@@ -5384,11 +5383,10 @@
         <v>3</v>
       </c>
       <c r="B9">
-        <f t="shared" ref="B9:C9" si="1">B3</f>
+        <f t="shared" ref="B9" si="1">B3</f>
         <v>2</v>
       </c>
       <c r="C9">
-        <f t="shared" si="1"/>
         <v>30</v>
       </c>
     </row>
@@ -5398,11 +5396,10 @@
         <v>3</v>
       </c>
       <c r="B10">
-        <f t="shared" ref="B10:C10" si="2">B4</f>
+        <f t="shared" ref="B10" si="2">B4</f>
         <v>3</v>
       </c>
       <c r="C10">
-        <f t="shared" si="2"/>
         <v>40</v>
       </c>
     </row>
@@ -5412,11 +5409,10 @@
         <v>4</v>
       </c>
       <c r="B11">
-        <f t="shared" ref="B11:C11" si="3">B5</f>
+        <f t="shared" ref="B11" si="3">B5</f>
         <v>1</v>
       </c>
       <c r="C11">
-        <f t="shared" si="3"/>
         <v>20</v>
       </c>
     </row>
@@ -5426,11 +5422,10 @@
         <v>4</v>
       </c>
       <c r="B12">
-        <f t="shared" ref="B12:C12" si="4">B6</f>
+        <f t="shared" ref="B12" si="4">B6</f>
         <v>2</v>
       </c>
       <c r="C12">
-        <f t="shared" si="4"/>
         <v>30</v>
       </c>
     </row>
@@ -5440,11 +5435,10 @@
         <v>4</v>
       </c>
       <c r="B13">
-        <f t="shared" ref="B13:C13" si="5">B7</f>
+        <f t="shared" ref="B13" si="5">B7</f>
         <v>3</v>
       </c>
       <c r="C13">
-        <f t="shared" si="5"/>
         <v>40</v>
       </c>
     </row>
@@ -5454,11 +5448,10 @@
         <v>5</v>
       </c>
       <c r="B14">
-        <f t="shared" ref="B14:C14" si="6">B8</f>
+        <f t="shared" ref="B14" si="6">B8</f>
         <v>1</v>
       </c>
       <c r="C14">
-        <f t="shared" si="6"/>
         <v>20</v>
       </c>
     </row>
@@ -5468,11 +5461,10 @@
         <v>5</v>
       </c>
       <c r="B15">
-        <f t="shared" ref="B15:C15" si="7">B9</f>
+        <f t="shared" ref="B15" si="7">B9</f>
         <v>2</v>
       </c>
       <c r="C15">
-        <f t="shared" si="7"/>
         <v>30</v>
       </c>
     </row>
@@ -5482,11 +5474,10 @@
         <v>5</v>
       </c>
       <c r="B16">
-        <f t="shared" ref="B16:C16" si="8">B10</f>
+        <f t="shared" ref="B16" si="8">B10</f>
         <v>3</v>
       </c>
       <c r="C16">
-        <f t="shared" si="8"/>
         <v>40</v>
       </c>
     </row>
@@ -5496,11 +5487,10 @@
         <v>6</v>
       </c>
       <c r="B17">
-        <f t="shared" ref="B17:C17" si="9">B11</f>
+        <f t="shared" ref="B17" si="9">B11</f>
         <v>1</v>
       </c>
       <c r="C17">
-        <f t="shared" si="9"/>
         <v>20</v>
       </c>
     </row>
@@ -5510,11 +5500,10 @@
         <v>6</v>
       </c>
       <c r="B18">
-        <f t="shared" ref="B18:C18" si="10">B12</f>
+        <f t="shared" ref="B18" si="10">B12</f>
         <v>2</v>
       </c>
       <c r="C18">
-        <f t="shared" si="10"/>
         <v>30</v>
       </c>
     </row>
@@ -5524,11 +5513,10 @@
         <v>6</v>
       </c>
       <c r="B19">
-        <f t="shared" ref="B19:C19" si="11">B13</f>
+        <f t="shared" ref="B19" si="11">B13</f>
         <v>3</v>
       </c>
       <c r="C19">
-        <f t="shared" si="11"/>
         <v>40</v>
       </c>
     </row>
@@ -5538,11 +5526,10 @@
         <v>7</v>
       </c>
       <c r="B20">
-        <f t="shared" ref="B20:C20" si="12">B14</f>
+        <f t="shared" ref="B20" si="12">B14</f>
         <v>1</v>
       </c>
       <c r="C20">
-        <f t="shared" si="12"/>
         <v>20</v>
       </c>
     </row>
@@ -5552,11 +5539,10 @@
         <v>7</v>
       </c>
       <c r="B21">
-        <f t="shared" ref="B21:C21" si="13">B15</f>
+        <f t="shared" ref="B21" si="13">B15</f>
         <v>2</v>
       </c>
       <c r="C21">
-        <f t="shared" si="13"/>
         <v>30</v>
       </c>
     </row>
@@ -5566,11 +5552,10 @@
         <v>7</v>
       </c>
       <c r="B22">
-        <f t="shared" ref="B22:C22" si="14">B16</f>
+        <f t="shared" ref="B22" si="14">B16</f>
         <v>3</v>
       </c>
       <c r="C22">
-        <f t="shared" si="14"/>
         <v>40</v>
       </c>
     </row>
@@ -5580,11 +5565,10 @@
         <v>8</v>
       </c>
       <c r="B23">
-        <f t="shared" ref="B23:C23" si="15">B17</f>
+        <f t="shared" ref="B23" si="15">B17</f>
         <v>1</v>
       </c>
       <c r="C23">
-        <f t="shared" si="15"/>
         <v>20</v>
       </c>
     </row>
@@ -5594,11 +5578,10 @@
         <v>8</v>
       </c>
       <c r="B24">
-        <f t="shared" ref="B24:C24" si="16">B18</f>
+        <f t="shared" ref="B24" si="16">B18</f>
         <v>2</v>
       </c>
       <c r="C24">
-        <f t="shared" si="16"/>
         <v>30</v>
       </c>
     </row>
@@ -5608,11 +5591,10 @@
         <v>8</v>
       </c>
       <c r="B25">
-        <f t="shared" ref="B25:C25" si="17">B19</f>
+        <f t="shared" ref="B25" si="17">B19</f>
         <v>3</v>
       </c>
       <c r="C25">
-        <f t="shared" si="17"/>
         <v>40</v>
       </c>
     </row>
@@ -5622,11 +5604,10 @@
         <v>9</v>
       </c>
       <c r="B26">
-        <f t="shared" ref="B26:C26" si="18">B20</f>
+        <f t="shared" ref="B26" si="18">B20</f>
         <v>1</v>
       </c>
       <c r="C26">
-        <f t="shared" si="18"/>
         <v>20</v>
       </c>
     </row>
@@ -5636,11 +5617,10 @@
         <v>9</v>
       </c>
       <c r="B27">
-        <f t="shared" ref="B27:C27" si="19">B21</f>
+        <f t="shared" ref="B27" si="19">B21</f>
         <v>2</v>
       </c>
       <c r="C27">
-        <f t="shared" si="19"/>
         <v>30</v>
       </c>
     </row>
@@ -5650,11 +5630,10 @@
         <v>9</v>
       </c>
       <c r="B28">
-        <f t="shared" ref="B28:C28" si="20">B22</f>
+        <f t="shared" ref="B28" si="20">B22</f>
         <v>3</v>
       </c>
       <c r="C28">
-        <f t="shared" si="20"/>
         <v>40</v>
       </c>
     </row>
@@ -5664,12 +5643,11 @@
         <v>10</v>
       </c>
       <c r="B29">
-        <f t="shared" ref="B29:C29" si="21">B23</f>
+        <f t="shared" ref="B29" si="21">B23</f>
         <v>1</v>
       </c>
       <c r="C29">
-        <f t="shared" si="21"/>
-        <v>20</v>
+        <v>15</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.3">
@@ -5678,11 +5656,10 @@
         <v>10</v>
       </c>
       <c r="B30">
-        <f t="shared" ref="B30:C30" si="22">B24</f>
+        <f t="shared" ref="B30" si="22">B24</f>
         <v>2</v>
       </c>
       <c r="C30">
-        <f t="shared" si="22"/>
         <v>30</v>
       </c>
     </row>
@@ -5692,11 +5669,10 @@
         <v>10</v>
       </c>
       <c r="B31">
-        <f t="shared" ref="B31:C31" si="23">B25</f>
+        <f t="shared" ref="B31" si="23">B25</f>
         <v>3</v>
       </c>
       <c r="C31">
-        <f t="shared" si="23"/>
         <v>40</v>
       </c>
     </row>
@@ -5706,12 +5682,11 @@
         <v>11</v>
       </c>
       <c r="B32">
-        <f t="shared" ref="B32:C32" si="24">B26</f>
+        <f t="shared" ref="B32" si="24">B26</f>
         <v>1</v>
       </c>
       <c r="C32">
-        <f t="shared" si="24"/>
-        <v>20</v>
+        <v>5</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.3">
@@ -5720,11 +5695,10 @@
         <v>11</v>
       </c>
       <c r="B33">
-        <f t="shared" ref="B33:C33" si="25">B27</f>
+        <f t="shared" ref="B33" si="25">B27</f>
         <v>2</v>
       </c>
       <c r="C33">
-        <f t="shared" si="25"/>
         <v>30</v>
       </c>
     </row>
@@ -5734,11 +5708,10 @@
         <v>11</v>
       </c>
       <c r="B34">
-        <f t="shared" ref="B34:C34" si="26">B28</f>
+        <f t="shared" ref="B34" si="26">B28</f>
         <v>3</v>
       </c>
       <c r="C34">
-        <f t="shared" si="26"/>
         <v>40</v>
       </c>
     </row>
@@ -5748,12 +5721,11 @@
         <v>12</v>
       </c>
       <c r="B35">
-        <f t="shared" ref="B35:C35" si="27">B29</f>
+        <f t="shared" ref="B35" si="27">B29</f>
         <v>1</v>
       </c>
       <c r="C35">
-        <f t="shared" si="27"/>
-        <v>20</v>
+        <v>5</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.3">
@@ -5762,11 +5734,10 @@
         <v>12</v>
       </c>
       <c r="B36">
-        <f t="shared" ref="B36:C36" si="28">B30</f>
+        <f t="shared" ref="B36" si="28">B30</f>
         <v>2</v>
       </c>
       <c r="C36">
-        <f t="shared" si="28"/>
         <v>30</v>
       </c>
     </row>
@@ -5776,11 +5747,10 @@
         <v>12</v>
       </c>
       <c r="B37">
-        <f t="shared" ref="B37:C37" si="29">B31</f>
+        <f t="shared" ref="B37" si="29">B31</f>
         <v>3</v>
       </c>
       <c r="C37">
-        <f t="shared" si="29"/>
         <v>40</v>
       </c>
     </row>
@@ -5790,11 +5760,10 @@
         <v>13</v>
       </c>
       <c r="B38">
-        <f t="shared" ref="B38:C38" si="30">B32</f>
+        <f t="shared" ref="B38" si="30">B32</f>
         <v>1</v>
       </c>
       <c r="C38">
-        <f t="shared" si="30"/>
         <v>20</v>
       </c>
     </row>
@@ -5804,11 +5773,10 @@
         <v>13</v>
       </c>
       <c r="B39">
-        <f t="shared" ref="B39:C39" si="31">B33</f>
+        <f t="shared" ref="B39" si="31">B33</f>
         <v>2</v>
       </c>
       <c r="C39">
-        <f t="shared" si="31"/>
         <v>30</v>
       </c>
     </row>
@@ -5818,11 +5786,10 @@
         <v>13</v>
       </c>
       <c r="B40">
-        <f t="shared" ref="B40:C40" si="32">B34</f>
+        <f t="shared" ref="B40" si="32">B34</f>
         <v>3</v>
       </c>
       <c r="C40">
-        <f t="shared" si="32"/>
         <v>40</v>
       </c>
     </row>
@@ -5832,11 +5799,10 @@
         <v>14</v>
       </c>
       <c r="B41">
-        <f t="shared" ref="B41:C41" si="33">B35</f>
+        <f t="shared" ref="B41" si="33">B35</f>
         <v>1</v>
       </c>
       <c r="C41">
-        <f t="shared" si="33"/>
         <v>20</v>
       </c>
     </row>
@@ -5846,11 +5812,10 @@
         <v>14</v>
       </c>
       <c r="B42">
-        <f t="shared" ref="B42:C42" si="34">B36</f>
+        <f t="shared" ref="B42" si="34">B36</f>
         <v>2</v>
       </c>
       <c r="C42">
-        <f t="shared" si="34"/>
         <v>30</v>
       </c>
     </row>
@@ -5860,11 +5825,10 @@
         <v>14</v>
       </c>
       <c r="B43">
-        <f t="shared" ref="B43:C43" si="35">B37</f>
+        <f t="shared" ref="B43" si="35">B37</f>
         <v>3</v>
       </c>
       <c r="C43">
-        <f t="shared" si="35"/>
         <v>40</v>
       </c>
     </row>
@@ -5874,11 +5838,10 @@
         <v>15</v>
       </c>
       <c r="B44">
-        <f t="shared" ref="B44:C44" si="36">B38</f>
+        <f t="shared" ref="B44" si="36">B38</f>
         <v>1</v>
       </c>
       <c r="C44">
-        <f t="shared" si="36"/>
         <v>20</v>
       </c>
     </row>
@@ -5888,11 +5851,10 @@
         <v>15</v>
       </c>
       <c r="B45">
-        <f t="shared" ref="B45:C45" si="37">B39</f>
+        <f t="shared" ref="B45" si="37">B39</f>
         <v>2</v>
       </c>
       <c r="C45">
-        <f t="shared" si="37"/>
         <v>30</v>
       </c>
     </row>
@@ -5902,11 +5864,10 @@
         <v>15</v>
       </c>
       <c r="B46">
-        <f t="shared" ref="B46:C46" si="38">B40</f>
+        <f t="shared" ref="B46" si="38">B40</f>
         <v>3</v>
       </c>
       <c r="C46">
-        <f t="shared" si="38"/>
         <v>40</v>
       </c>
     </row>
@@ -5916,12 +5877,11 @@
         <v>16</v>
       </c>
       <c r="B47">
-        <f t="shared" ref="B47:C47" si="39">B41</f>
+        <f t="shared" ref="B47" si="39">B41</f>
         <v>1</v>
       </c>
       <c r="C47">
-        <f t="shared" si="39"/>
-        <v>20</v>
+        <v>5</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.3">
@@ -5930,11 +5890,10 @@
         <v>16</v>
       </c>
       <c r="B48">
-        <f t="shared" ref="B48:C48" si="40">B42</f>
+        <f t="shared" ref="B48" si="40">B42</f>
         <v>2</v>
       </c>
       <c r="C48">
-        <f t="shared" si="40"/>
         <v>30</v>
       </c>
     </row>
@@ -5944,11 +5903,10 @@
         <v>16</v>
       </c>
       <c r="B49">
-        <f t="shared" ref="B49:C49" si="41">B43</f>
+        <f t="shared" ref="B49" si="41">B43</f>
         <v>3</v>
       </c>
       <c r="C49">
-        <f t="shared" si="41"/>
         <v>40</v>
       </c>
     </row>
@@ -5958,11 +5916,10 @@
         <v>17</v>
       </c>
       <c r="B50">
-        <f t="shared" ref="B50:C50" si="42">B44</f>
+        <f t="shared" ref="B50" si="42">B44</f>
         <v>1</v>
       </c>
       <c r="C50">
-        <f t="shared" si="42"/>
         <v>20</v>
       </c>
     </row>
@@ -5972,11 +5929,10 @@
         <v>17</v>
       </c>
       <c r="B51">
-        <f t="shared" ref="B51:C51" si="43">B45</f>
+        <f t="shared" ref="B51" si="43">B45</f>
         <v>2</v>
       </c>
       <c r="C51">
-        <f t="shared" si="43"/>
         <v>30</v>
       </c>
     </row>
@@ -5986,11 +5942,10 @@
         <v>17</v>
       </c>
       <c r="B52">
-        <f t="shared" ref="B52:C52" si="44">B46</f>
+        <f t="shared" ref="B52" si="44">B46</f>
         <v>3</v>
       </c>
       <c r="C52">
-        <f t="shared" si="44"/>
         <v>40</v>
       </c>
     </row>
@@ -6000,11 +5955,10 @@
         <v>18</v>
       </c>
       <c r="B53">
-        <f t="shared" ref="B53:C53" si="45">B47</f>
+        <f t="shared" ref="B53" si="45">B47</f>
         <v>1</v>
       </c>
       <c r="C53">
-        <f t="shared" si="45"/>
         <v>20</v>
       </c>
     </row>
@@ -6014,11 +5968,10 @@
         <v>18</v>
       </c>
       <c r="B54">
-        <f t="shared" ref="B54:C54" si="46">B48</f>
+        <f t="shared" ref="B54" si="46">B48</f>
         <v>2</v>
       </c>
       <c r="C54">
-        <f t="shared" si="46"/>
         <v>30</v>
       </c>
     </row>
@@ -6028,11 +5981,10 @@
         <v>18</v>
       </c>
       <c r="B55">
-        <f t="shared" ref="B55:C55" si="47">B49</f>
+        <f t="shared" ref="B55" si="47">B49</f>
         <v>3</v>
       </c>
       <c r="C55">
-        <f t="shared" si="47"/>
         <v>40</v>
       </c>
     </row>
@@ -6042,11 +5994,10 @@
         <v>19</v>
       </c>
       <c r="B56">
-        <f t="shared" ref="B56:C56" si="48">B50</f>
+        <f t="shared" ref="B56" si="48">B50</f>
         <v>1</v>
       </c>
       <c r="C56">
-        <f t="shared" si="48"/>
         <v>20</v>
       </c>
     </row>
@@ -6056,11 +6007,10 @@
         <v>19</v>
       </c>
       <c r="B57">
-        <f t="shared" ref="B57:C57" si="49">B51</f>
+        <f t="shared" ref="B57" si="49">B51</f>
         <v>2</v>
       </c>
       <c r="C57">
-        <f t="shared" si="49"/>
         <v>30</v>
       </c>
     </row>
@@ -6070,11 +6020,10 @@
         <v>19</v>
       </c>
       <c r="B58">
-        <f t="shared" ref="B58:C58" si="50">B52</f>
+        <f t="shared" ref="B58" si="50">B52</f>
         <v>3</v>
       </c>
       <c r="C58">
-        <f t="shared" si="50"/>
         <v>40</v>
       </c>
     </row>
@@ -6084,11 +6033,10 @@
         <v>20</v>
       </c>
       <c r="B59">
-        <f t="shared" ref="B59:C59" si="51">B53</f>
+        <f t="shared" ref="B59" si="51">B53</f>
         <v>1</v>
       </c>
       <c r="C59">
-        <f t="shared" si="51"/>
         <v>20</v>
       </c>
     </row>
@@ -6098,11 +6046,10 @@
         <v>20</v>
       </c>
       <c r="B60">
-        <f t="shared" ref="B60:C60" si="52">B54</f>
+        <f t="shared" ref="B60" si="52">B54</f>
         <v>2</v>
       </c>
       <c r="C60">
-        <f t="shared" si="52"/>
         <v>30</v>
       </c>
     </row>
@@ -6112,11 +6059,10 @@
         <v>20</v>
       </c>
       <c r="B61">
-        <f t="shared" ref="B61:C61" si="53">B55</f>
+        <f t="shared" ref="B61" si="53">B55</f>
         <v>3</v>
       </c>
       <c r="C61">
-        <f t="shared" si="53"/>
         <v>40</v>
       </c>
     </row>
@@ -6126,11 +6072,10 @@
         <v>21</v>
       </c>
       <c r="B62">
-        <f t="shared" ref="B62:C62" si="54">B56</f>
+        <f t="shared" ref="B62" si="54">B56</f>
         <v>1</v>
       </c>
       <c r="C62">
-        <f t="shared" si="54"/>
         <v>20</v>
       </c>
     </row>
@@ -6140,11 +6085,10 @@
         <v>21</v>
       </c>
       <c r="B63">
-        <f t="shared" ref="B63:C63" si="55">B57</f>
+        <f t="shared" ref="B63" si="55">B57</f>
         <v>2</v>
       </c>
       <c r="C63">
-        <f t="shared" si="55"/>
         <v>30</v>
       </c>
     </row>
@@ -6154,11 +6098,10 @@
         <v>21</v>
       </c>
       <c r="B64">
-        <f t="shared" ref="B64:C64" si="56">B58</f>
+        <f t="shared" ref="B64" si="56">B58</f>
         <v>3</v>
       </c>
       <c r="C64">
-        <f t="shared" si="56"/>
         <v>40</v>
       </c>
     </row>
@@ -6168,11 +6111,10 @@
         <v>22</v>
       </c>
       <c r="B65">
-        <f t="shared" ref="B65:C65" si="57">B59</f>
+        <f t="shared" ref="B65" si="57">B59</f>
         <v>1</v>
       </c>
       <c r="C65">
-        <f t="shared" si="57"/>
         <v>20</v>
       </c>
     </row>
@@ -6182,11 +6124,10 @@
         <v>22</v>
       </c>
       <c r="B66">
-        <f t="shared" ref="B66:C66" si="58">B60</f>
+        <f t="shared" ref="B66" si="58">B60</f>
         <v>2</v>
       </c>
       <c r="C66">
-        <f t="shared" si="58"/>
         <v>30</v>
       </c>
     </row>
@@ -6196,11 +6137,10 @@
         <v>22</v>
       </c>
       <c r="B67">
-        <f t="shared" ref="B67:C67" si="59">B61</f>
+        <f t="shared" ref="B67" si="59">B61</f>
         <v>3</v>
       </c>
       <c r="C67">
-        <f t="shared" si="59"/>
         <v>40</v>
       </c>
     </row>
@@ -6210,11 +6150,10 @@
         <v>23</v>
       </c>
       <c r="B68">
-        <f t="shared" ref="B68:C68" si="60">B62</f>
+        <f t="shared" ref="B68" si="60">B62</f>
         <v>1</v>
       </c>
       <c r="C68">
-        <f t="shared" si="60"/>
         <v>20</v>
       </c>
     </row>
@@ -6224,11 +6163,10 @@
         <v>23</v>
       </c>
       <c r="B69">
-        <f t="shared" ref="B69:C69" si="61">B63</f>
+        <f t="shared" ref="B69" si="61">B63</f>
         <v>2</v>
       </c>
       <c r="C69">
-        <f t="shared" si="61"/>
         <v>30</v>
       </c>
     </row>
@@ -6238,11 +6176,10 @@
         <v>23</v>
       </c>
       <c r="B70">
-        <f t="shared" ref="B70:C70" si="62">B64</f>
+        <f t="shared" ref="B70" si="62">B64</f>
         <v>3</v>
       </c>
       <c r="C70">
-        <f t="shared" si="62"/>
         <v>40</v>
       </c>
     </row>
@@ -6252,11 +6189,10 @@
         <v>24</v>
       </c>
       <c r="B71">
-        <f t="shared" ref="B71:C71" si="63">B65</f>
+        <f t="shared" ref="B71" si="63">B65</f>
         <v>1</v>
       </c>
       <c r="C71">
-        <f t="shared" si="63"/>
         <v>20</v>
       </c>
     </row>
@@ -6266,11 +6202,10 @@
         <v>24</v>
       </c>
       <c r="B72">
-        <f t="shared" ref="B72:C72" si="64">B66</f>
+        <f t="shared" ref="B72" si="64">B66</f>
         <v>2</v>
       </c>
       <c r="C72">
-        <f t="shared" si="64"/>
         <v>30</v>
       </c>
     </row>
@@ -6280,11 +6215,10 @@
         <v>24</v>
       </c>
       <c r="B73">
-        <f t="shared" ref="B73:C73" si="66">B67</f>
+        <f t="shared" ref="B73" si="66">B67</f>
         <v>3</v>
       </c>
       <c r="C73">
-        <f t="shared" si="66"/>
         <v>40</v>
       </c>
     </row>
@@ -6294,11 +6228,10 @@
         <v>25</v>
       </c>
       <c r="B74">
-        <f t="shared" ref="B74:C74" si="67">B68</f>
+        <f t="shared" ref="B74" si="67">B68</f>
         <v>1</v>
       </c>
       <c r="C74">
-        <f t="shared" si="67"/>
         <v>20</v>
       </c>
     </row>
@@ -6308,11 +6241,10 @@
         <v>25</v>
       </c>
       <c r="B75">
-        <f t="shared" ref="B75:C75" si="68">B69</f>
+        <f t="shared" ref="B75" si="68">B69</f>
         <v>2</v>
       </c>
       <c r="C75">
-        <f t="shared" si="68"/>
         <v>30</v>
       </c>
     </row>
@@ -6322,11 +6254,10 @@
         <v>25</v>
       </c>
       <c r="B76">
-        <f t="shared" ref="B76:C76" si="69">B70</f>
+        <f t="shared" ref="B76" si="69">B70</f>
         <v>3</v>
       </c>
       <c r="C76">
-        <f t="shared" si="69"/>
         <v>40</v>
       </c>
     </row>
@@ -6336,11 +6267,10 @@
         <v>26</v>
       </c>
       <c r="B77">
-        <f t="shared" ref="B77:C77" si="70">B71</f>
+        <f t="shared" ref="B77" si="70">B71</f>
         <v>1</v>
       </c>
       <c r="C77">
-        <f t="shared" si="70"/>
         <v>20</v>
       </c>
     </row>
@@ -6350,11 +6280,10 @@
         <v>26</v>
       </c>
       <c r="B78">
-        <f t="shared" ref="B78:C78" si="71">B72</f>
+        <f t="shared" ref="B78" si="71">B72</f>
         <v>2</v>
       </c>
       <c r="C78">
-        <f t="shared" si="71"/>
         <v>30</v>
       </c>
     </row>
@@ -6364,11 +6293,10 @@
         <v>26</v>
       </c>
       <c r="B79">
-        <f t="shared" ref="B79:C79" si="72">B73</f>
+        <f t="shared" ref="B79" si="72">B73</f>
         <v>3</v>
       </c>
       <c r="C79">
-        <f t="shared" si="72"/>
         <v>40</v>
       </c>
     </row>
@@ -6378,11 +6306,10 @@
         <v>27</v>
       </c>
       <c r="B80">
-        <f t="shared" ref="B80:C80" si="73">B74</f>
+        <f t="shared" ref="B80" si="73">B74</f>
         <v>1</v>
       </c>
       <c r="C80">
-        <f t="shared" si="73"/>
         <v>20</v>
       </c>
     </row>
@@ -6392,11 +6319,10 @@
         <v>27</v>
       </c>
       <c r="B81">
-        <f t="shared" ref="B81:C81" si="74">B75</f>
+        <f t="shared" ref="B81" si="74">B75</f>
         <v>2</v>
       </c>
       <c r="C81">
-        <f t="shared" si="74"/>
         <v>30</v>
       </c>
     </row>
@@ -6406,11 +6332,10 @@
         <v>27</v>
       </c>
       <c r="B82">
-        <f t="shared" ref="B82:C82" si="75">B76</f>
+        <f t="shared" ref="B82" si="75">B76</f>
         <v>3</v>
       </c>
       <c r="C82">
-        <f t="shared" si="75"/>
         <v>40</v>
       </c>
     </row>
@@ -6420,12 +6345,11 @@
         <v>28</v>
       </c>
       <c r="B83">
-        <f t="shared" ref="B83:C83" si="76">B77</f>
+        <f t="shared" ref="B83" si="76">B77</f>
         <v>1</v>
       </c>
       <c r="C83">
-        <f t="shared" si="76"/>
-        <v>20</v>
+        <v>30</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.3">
@@ -6434,11 +6358,10 @@
         <v>28</v>
       </c>
       <c r="B84">
-        <f t="shared" ref="B84:C84" si="77">B78</f>
+        <f t="shared" ref="B84" si="77">B78</f>
         <v>2</v>
       </c>
       <c r="C84">
-        <f t="shared" si="77"/>
         <v>30</v>
       </c>
     </row>
@@ -6448,11 +6371,10 @@
         <v>28</v>
       </c>
       <c r="B85">
-        <f t="shared" ref="B85:C85" si="78">B79</f>
+        <f t="shared" ref="B85" si="78">B79</f>
         <v>3</v>
       </c>
       <c r="C85">
-        <f t="shared" si="78"/>
         <v>40</v>
       </c>
     </row>

--- a/02_data/ingresos_volumen.xlsx
+++ b/02_data/ingresos_volumen.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Trabajo\111_Ale\not_opticliente\02_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{820A21D2-B66C-44F9-AE80-2E21C23C28D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D544573C-A71F-4E4C-B383-6D6A02C67DE9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="384" yWindow="384" windowWidth="17280" windowHeight="8964" tabRatio="830" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="15840" tabRatio="830" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="prioridades" sheetId="1" state="hidden" r:id="rId1"/>
@@ -72,7 +72,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="79">
   <si>
     <t xml:space="preserve"> prioridad</t>
   </si>
@@ -306,9 +306,6 @@
   </si>
   <si>
     <t>id_ingreso</t>
-  </si>
-  <si>
-    <t>volumen</t>
   </si>
   <si>
     <t>mes_planificado</t>
@@ -5276,1105 +5273,452 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A4C73B43-FFAA-4A99-89BF-79633160357D}">
-  <dimension ref="A1:C85"/>
+  <dimension ref="A1:M30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A70" workbookViewId="0">
-      <selection activeCell="C84" sqref="C84"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4:D30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="B1" s="75" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
         <v>77</v>
       </c>
-      <c r="B1" s="75" t="s">
-        <v>79</v>
-      </c>
-      <c r="C1" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2">
+      <c r="B2" s="75">
         <v>1</v>
       </c>
-      <c r="B2">
-        <v>1</v>
-      </c>
       <c r="C2">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+        <v>2</v>
+      </c>
+      <c r="D2">
+        <v>3</v>
+      </c>
+      <c r="E2" s="75">
+        <v>4</v>
+      </c>
+      <c r="F2">
+        <v>5</v>
+      </c>
+      <c r="G2">
+        <v>6</v>
+      </c>
+      <c r="H2" s="75">
+        <v>7</v>
+      </c>
+      <c r="I2">
+        <v>8</v>
+      </c>
+      <c r="J2">
+        <v>9</v>
+      </c>
+      <c r="K2" s="75">
+        <v>10</v>
+      </c>
+      <c r="L2">
+        <v>11</v>
+      </c>
+      <c r="M2">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="C3">
         <v>30</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D3">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B4">
+        <v>20</v>
+      </c>
+      <c r="C4">
+        <v>30</v>
+      </c>
+      <c r="D4">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A5">
         <v>3</v>
       </c>
-      <c r="C4">
+      <c r="B5">
+        <v>20</v>
+      </c>
+      <c r="C5">
+        <v>30</v>
+      </c>
+      <c r="D5">
         <v>40</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A5">
-        <v>2</v>
-      </c>
-      <c r="B5">
-        <v>1</v>
-      </c>
-      <c r="C5">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>4</v>
+      </c>
+      <c r="B6">
         <v>20</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A6">
-        <v>2</v>
-      </c>
-      <c r="B6">
-        <v>2</v>
       </c>
       <c r="C6">
         <v>30</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D6">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A7">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B7">
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="C7">
+        <v>30</v>
+      </c>
+      <c r="D7">
         <v>40</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A8">
-        <f>A2+2</f>
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B8">
-        <f>B2</f>
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="C8">
+        <v>30</v>
+      </c>
+      <c r="D8">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>7</v>
+      </c>
+      <c r="B9">
         <v>20</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A9">
-        <f t="shared" ref="A9:A72" si="0">A3+2</f>
-        <v>3</v>
-      </c>
-      <c r="B9">
-        <f t="shared" ref="B9" si="1">B3</f>
-        <v>2</v>
       </c>
       <c r="C9">
         <v>30</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D9">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A10">
-        <f t="shared" si="0"/>
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="B10">
-        <f t="shared" ref="B10" si="2">B4</f>
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="C10">
+        <v>30</v>
+      </c>
+      <c r="D10">
         <v>40</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A11">
-        <f t="shared" si="0"/>
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="B11">
-        <f t="shared" ref="B11" si="3">B5</f>
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="C11">
+        <v>30</v>
+      </c>
+      <c r="D11">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>10</v>
+      </c>
+      <c r="B12">
         <v>20</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A12">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="B12">
-        <f t="shared" ref="B12" si="4">B6</f>
-        <v>2</v>
       </c>
       <c r="C12">
         <v>30</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D12">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A13">
-        <f t="shared" si="0"/>
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="B13">
-        <f t="shared" ref="B13" si="5">B7</f>
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="C13">
+        <v>30</v>
+      </c>
+      <c r="D13">
         <v>40</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A14">
-        <f t="shared" si="0"/>
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="B14">
-        <f t="shared" ref="B14" si="6">B8</f>
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="C14">
+        <v>30</v>
+      </c>
+      <c r="D14">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>13</v>
+      </c>
+      <c r="B15">
         <v>20</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A15">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="B15">
-        <f t="shared" ref="B15" si="7">B9</f>
-        <v>2</v>
       </c>
       <c r="C15">
         <v>30</v>
       </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D15">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A16">
-        <f t="shared" si="0"/>
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="B16">
-        <f t="shared" ref="B16" si="8">B10</f>
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="C16">
+        <v>30</v>
+      </c>
+      <c r="D16">
         <v>40</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17">
-        <f t="shared" si="0"/>
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="B17">
-        <f t="shared" ref="B17" si="9">B11</f>
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="C17">
+        <v>30</v>
+      </c>
+      <c r="D17">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>16</v>
+      </c>
+      <c r="B18">
         <v>20</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A18">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="B18">
-        <f t="shared" ref="B18" si="10">B12</f>
-        <v>2</v>
       </c>
       <c r="C18">
         <v>30</v>
       </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D18">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19">
-        <f t="shared" si="0"/>
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="B19">
-        <f t="shared" ref="B19" si="11">B13</f>
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="C19">
+        <v>30</v>
+      </c>
+      <c r="D19">
         <v>40</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20">
-        <f t="shared" si="0"/>
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="B20">
-        <f t="shared" ref="B20" si="12">B14</f>
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="C20">
+        <v>30</v>
+      </c>
+      <c r="D20">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A21">
+        <v>19</v>
+      </c>
+      <c r="B21">
         <v>20</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A21">
-        <f t="shared" si="0"/>
-        <v>7</v>
-      </c>
-      <c r="B21">
-        <f t="shared" ref="B21" si="13">B15</f>
-        <v>2</v>
       </c>
       <c r="C21">
         <v>30</v>
       </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D21">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22">
-        <f t="shared" si="0"/>
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="B22">
-        <f t="shared" ref="B22" si="14">B16</f>
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="C22">
+        <v>30</v>
+      </c>
+      <c r="D22">
         <v>40</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23">
-        <f t="shared" si="0"/>
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="B23">
-        <f t="shared" ref="B23" si="15">B17</f>
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="C23">
+        <v>30</v>
+      </c>
+      <c r="D23">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A24">
+        <v>22</v>
+      </c>
+      <c r="B24">
         <v>20</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A24">
-        <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
-      <c r="B24">
-        <f t="shared" ref="B24" si="16">B18</f>
-        <v>2</v>
       </c>
       <c r="C24">
         <v>30</v>
       </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D24">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25">
-        <f t="shared" si="0"/>
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="B25">
-        <f t="shared" ref="B25" si="17">B19</f>
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="C25">
+        <v>30</v>
+      </c>
+      <c r="D25">
         <v>40</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26">
-        <f t="shared" si="0"/>
-        <v>9</v>
+        <v>24</v>
       </c>
       <c r="B26">
-        <f t="shared" ref="B26" si="18">B20</f>
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="C26">
+        <v>30</v>
+      </c>
+      <c r="D26">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A27">
+        <v>25</v>
+      </c>
+      <c r="B27">
         <v>20</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A27">
-        <f t="shared" si="0"/>
-        <v>9</v>
-      </c>
-      <c r="B27">
-        <f t="shared" ref="B27" si="19">B21</f>
-        <v>2</v>
       </c>
       <c r="C27">
         <v>30</v>
       </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D27">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28">
-        <f t="shared" si="0"/>
-        <v>9</v>
+        <v>26</v>
       </c>
       <c r="B28">
-        <f t="shared" ref="B28" si="20">B22</f>
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="C28">
+        <v>30</v>
+      </c>
+      <c r="D28">
         <v>40</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29">
-        <f t="shared" si="0"/>
-        <v>10</v>
+        <v>27</v>
       </c>
       <c r="B29">
-        <f t="shared" ref="B29" si="21">B23</f>
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="C29">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+        <v>30</v>
+      </c>
+      <c r="D29">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30">
-        <f t="shared" si="0"/>
-        <v>10</v>
+        <v>28</v>
       </c>
       <c r="B30">
-        <f t="shared" ref="B30" si="22">B24</f>
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="C30">
         <v>30</v>
       </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A31">
-        <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="B31">
-        <f t="shared" ref="B31" si="23">B25</f>
-        <v>3</v>
-      </c>
-      <c r="C31">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A32">
-        <f t="shared" si="0"/>
-        <v>11</v>
-      </c>
-      <c r="B32">
-        <f t="shared" ref="B32" si="24">B26</f>
-        <v>1</v>
-      </c>
-      <c r="C32">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A33">
-        <f t="shared" si="0"/>
-        <v>11</v>
-      </c>
-      <c r="B33">
-        <f t="shared" ref="B33" si="25">B27</f>
-        <v>2</v>
-      </c>
-      <c r="C33">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A34">
-        <f t="shared" si="0"/>
-        <v>11</v>
-      </c>
-      <c r="B34">
-        <f t="shared" ref="B34" si="26">B28</f>
-        <v>3</v>
-      </c>
-      <c r="C34">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A35">
-        <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-      <c r="B35">
-        <f t="shared" ref="B35" si="27">B29</f>
-        <v>1</v>
-      </c>
-      <c r="C35">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A36">
-        <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-      <c r="B36">
-        <f t="shared" ref="B36" si="28">B30</f>
-        <v>2</v>
-      </c>
-      <c r="C36">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A37">
-        <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-      <c r="B37">
-        <f t="shared" ref="B37" si="29">B31</f>
-        <v>3</v>
-      </c>
-      <c r="C37">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A38">
-        <f t="shared" si="0"/>
-        <v>13</v>
-      </c>
-      <c r="B38">
-        <f t="shared" ref="B38" si="30">B32</f>
-        <v>1</v>
-      </c>
-      <c r="C38">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A39">
-        <f t="shared" si="0"/>
-        <v>13</v>
-      </c>
-      <c r="B39">
-        <f t="shared" ref="B39" si="31">B33</f>
-        <v>2</v>
-      </c>
-      <c r="C39">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A40">
-        <f t="shared" si="0"/>
-        <v>13</v>
-      </c>
-      <c r="B40">
-        <f t="shared" ref="B40" si="32">B34</f>
-        <v>3</v>
-      </c>
-      <c r="C40">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A41">
-        <f t="shared" si="0"/>
-        <v>14</v>
-      </c>
-      <c r="B41">
-        <f t="shared" ref="B41" si="33">B35</f>
-        <v>1</v>
-      </c>
-      <c r="C41">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A42">
-        <f t="shared" si="0"/>
-        <v>14</v>
-      </c>
-      <c r="B42">
-        <f t="shared" ref="B42" si="34">B36</f>
-        <v>2</v>
-      </c>
-      <c r="C42">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A43">
-        <f t="shared" si="0"/>
-        <v>14</v>
-      </c>
-      <c r="B43">
-        <f t="shared" ref="B43" si="35">B37</f>
-        <v>3</v>
-      </c>
-      <c r="C43">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A44">
-        <f t="shared" si="0"/>
-        <v>15</v>
-      </c>
-      <c r="B44">
-        <f t="shared" ref="B44" si="36">B38</f>
-        <v>1</v>
-      </c>
-      <c r="C44">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A45">
-        <f t="shared" si="0"/>
-        <v>15</v>
-      </c>
-      <c r="B45">
-        <f t="shared" ref="B45" si="37">B39</f>
-        <v>2</v>
-      </c>
-      <c r="C45">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A46">
-        <f t="shared" si="0"/>
-        <v>15</v>
-      </c>
-      <c r="B46">
-        <f t="shared" ref="B46" si="38">B40</f>
-        <v>3</v>
-      </c>
-      <c r="C46">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A47">
-        <f t="shared" si="0"/>
-        <v>16</v>
-      </c>
-      <c r="B47">
-        <f t="shared" ref="B47" si="39">B41</f>
-        <v>1</v>
-      </c>
-      <c r="C47">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A48">
-        <f t="shared" si="0"/>
-        <v>16</v>
-      </c>
-      <c r="B48">
-        <f t="shared" ref="B48" si="40">B42</f>
-        <v>2</v>
-      </c>
-      <c r="C48">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A49">
-        <f t="shared" si="0"/>
-        <v>16</v>
-      </c>
-      <c r="B49">
-        <f t="shared" ref="B49" si="41">B43</f>
-        <v>3</v>
-      </c>
-      <c r="C49">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A50">
-        <f t="shared" si="0"/>
-        <v>17</v>
-      </c>
-      <c r="B50">
-        <f t="shared" ref="B50" si="42">B44</f>
-        <v>1</v>
-      </c>
-      <c r="C50">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A51">
-        <f t="shared" si="0"/>
-        <v>17</v>
-      </c>
-      <c r="B51">
-        <f t="shared" ref="B51" si="43">B45</f>
-        <v>2</v>
-      </c>
-      <c r="C51">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A52">
-        <f t="shared" si="0"/>
-        <v>17</v>
-      </c>
-      <c r="B52">
-        <f t="shared" ref="B52" si="44">B46</f>
-        <v>3</v>
-      </c>
-      <c r="C52">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A53">
-        <f t="shared" si="0"/>
-        <v>18</v>
-      </c>
-      <c r="B53">
-        <f t="shared" ref="B53" si="45">B47</f>
-        <v>1</v>
-      </c>
-      <c r="C53">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A54">
-        <f t="shared" si="0"/>
-        <v>18</v>
-      </c>
-      <c r="B54">
-        <f t="shared" ref="B54" si="46">B48</f>
-        <v>2</v>
-      </c>
-      <c r="C54">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A55">
-        <f t="shared" si="0"/>
-        <v>18</v>
-      </c>
-      <c r="B55">
-        <f t="shared" ref="B55" si="47">B49</f>
-        <v>3</v>
-      </c>
-      <c r="C55">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A56">
-        <f t="shared" si="0"/>
-        <v>19</v>
-      </c>
-      <c r="B56">
-        <f t="shared" ref="B56" si="48">B50</f>
-        <v>1</v>
-      </c>
-      <c r="C56">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A57">
-        <f t="shared" si="0"/>
-        <v>19</v>
-      </c>
-      <c r="B57">
-        <f t="shared" ref="B57" si="49">B51</f>
-        <v>2</v>
-      </c>
-      <c r="C57">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A58">
-        <f t="shared" si="0"/>
-        <v>19</v>
-      </c>
-      <c r="B58">
-        <f t="shared" ref="B58" si="50">B52</f>
-        <v>3</v>
-      </c>
-      <c r="C58">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A59">
-        <f t="shared" si="0"/>
-        <v>20</v>
-      </c>
-      <c r="B59">
-        <f t="shared" ref="B59" si="51">B53</f>
-        <v>1</v>
-      </c>
-      <c r="C59">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A60">
-        <f t="shared" si="0"/>
-        <v>20</v>
-      </c>
-      <c r="B60">
-        <f t="shared" ref="B60" si="52">B54</f>
-        <v>2</v>
-      </c>
-      <c r="C60">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A61">
-        <f t="shared" si="0"/>
-        <v>20</v>
-      </c>
-      <c r="B61">
-        <f t="shared" ref="B61" si="53">B55</f>
-        <v>3</v>
-      </c>
-      <c r="C61">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A62">
-        <f t="shared" si="0"/>
-        <v>21</v>
-      </c>
-      <c r="B62">
-        <f t="shared" ref="B62" si="54">B56</f>
-        <v>1</v>
-      </c>
-      <c r="C62">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A63">
-        <f t="shared" si="0"/>
-        <v>21</v>
-      </c>
-      <c r="B63">
-        <f t="shared" ref="B63" si="55">B57</f>
-        <v>2</v>
-      </c>
-      <c r="C63">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A64">
-        <f t="shared" si="0"/>
-        <v>21</v>
-      </c>
-      <c r="B64">
-        <f t="shared" ref="B64" si="56">B58</f>
-        <v>3</v>
-      </c>
-      <c r="C64">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A65">
-        <f t="shared" si="0"/>
-        <v>22</v>
-      </c>
-      <c r="B65">
-        <f t="shared" ref="B65" si="57">B59</f>
-        <v>1</v>
-      </c>
-      <c r="C65">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A66">
-        <f t="shared" si="0"/>
-        <v>22</v>
-      </c>
-      <c r="B66">
-        <f t="shared" ref="B66" si="58">B60</f>
-        <v>2</v>
-      </c>
-      <c r="C66">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A67">
-        <f t="shared" si="0"/>
-        <v>22</v>
-      </c>
-      <c r="B67">
-        <f t="shared" ref="B67" si="59">B61</f>
-        <v>3</v>
-      </c>
-      <c r="C67">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A68">
-        <f t="shared" si="0"/>
-        <v>23</v>
-      </c>
-      <c r="B68">
-        <f t="shared" ref="B68" si="60">B62</f>
-        <v>1</v>
-      </c>
-      <c r="C68">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A69">
-        <f t="shared" si="0"/>
-        <v>23</v>
-      </c>
-      <c r="B69">
-        <f t="shared" ref="B69" si="61">B63</f>
-        <v>2</v>
-      </c>
-      <c r="C69">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A70">
-        <f t="shared" si="0"/>
-        <v>23</v>
-      </c>
-      <c r="B70">
-        <f t="shared" ref="B70" si="62">B64</f>
-        <v>3</v>
-      </c>
-      <c r="C70">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A71">
-        <f t="shared" si="0"/>
-        <v>24</v>
-      </c>
-      <c r="B71">
-        <f t="shared" ref="B71" si="63">B65</f>
-        <v>1</v>
-      </c>
-      <c r="C71">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A72">
-        <f t="shared" si="0"/>
-        <v>24</v>
-      </c>
-      <c r="B72">
-        <f t="shared" ref="B72" si="64">B66</f>
-        <v>2</v>
-      </c>
-      <c r="C72">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A73">
-        <f t="shared" ref="A73:A85" si="65">A67+2</f>
-        <v>24</v>
-      </c>
-      <c r="B73">
-        <f t="shared" ref="B73" si="66">B67</f>
-        <v>3</v>
-      </c>
-      <c r="C73">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A74">
-        <f t="shared" si="65"/>
-        <v>25</v>
-      </c>
-      <c r="B74">
-        <f t="shared" ref="B74" si="67">B68</f>
-        <v>1</v>
-      </c>
-      <c r="C74">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A75">
-        <f t="shared" si="65"/>
-        <v>25</v>
-      </c>
-      <c r="B75">
-        <f t="shared" ref="B75" si="68">B69</f>
-        <v>2</v>
-      </c>
-      <c r="C75">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A76">
-        <f t="shared" si="65"/>
-        <v>25</v>
-      </c>
-      <c r="B76">
-        <f t="shared" ref="B76" si="69">B70</f>
-        <v>3</v>
-      </c>
-      <c r="C76">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A77">
-        <f t="shared" si="65"/>
-        <v>26</v>
-      </c>
-      <c r="B77">
-        <f t="shared" ref="B77" si="70">B71</f>
-        <v>1</v>
-      </c>
-      <c r="C77">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A78">
-        <f t="shared" si="65"/>
-        <v>26</v>
-      </c>
-      <c r="B78">
-        <f t="shared" ref="B78" si="71">B72</f>
-        <v>2</v>
-      </c>
-      <c r="C78">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A79">
-        <f t="shared" si="65"/>
-        <v>26</v>
-      </c>
-      <c r="B79">
-        <f t="shared" ref="B79" si="72">B73</f>
-        <v>3</v>
-      </c>
-      <c r="C79">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A80">
-        <f t="shared" si="65"/>
-        <v>27</v>
-      </c>
-      <c r="B80">
-        <f t="shared" ref="B80" si="73">B74</f>
-        <v>1</v>
-      </c>
-      <c r="C80">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A81">
-        <f t="shared" si="65"/>
-        <v>27</v>
-      </c>
-      <c r="B81">
-        <f t="shared" ref="B81" si="74">B75</f>
-        <v>2</v>
-      </c>
-      <c r="C81">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A82">
-        <f t="shared" si="65"/>
-        <v>27</v>
-      </c>
-      <c r="B82">
-        <f t="shared" ref="B82" si="75">B76</f>
-        <v>3</v>
-      </c>
-      <c r="C82">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A83">
-        <f t="shared" si="65"/>
-        <v>28</v>
-      </c>
-      <c r="B83">
-        <f t="shared" ref="B83" si="76">B77</f>
-        <v>1</v>
-      </c>
-      <c r="C83">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A84">
-        <f t="shared" si="65"/>
-        <v>28</v>
-      </c>
-      <c r="B84">
-        <f t="shared" ref="B84" si="77">B78</f>
-        <v>2</v>
-      </c>
-      <c r="C84">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A85">
-        <f t="shared" si="65"/>
-        <v>28</v>
-      </c>
-      <c r="B85">
-        <f t="shared" ref="B85" si="78">B79</f>
-        <v>3</v>
-      </c>
-      <c r="C85">
+      <c r="D30">
         <v>40</v>
       </c>
     </row>

--- a/02_data/ingresos_volumen.xlsx
+++ b/02_data/ingresos_volumen.xlsx
@@ -5,16 +5,16 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Trabajo\111_Ale\not_opticliente\02_data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pedro.toledo\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D544573C-A71F-4E4C-B383-6D6A02C67DE9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8432F478-6BBA-4BDB-965A-4A80F2E8072D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="15840" tabRatio="830" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3636" yWindow="-11592" windowWidth="17280" windowHeight="8964" tabRatio="830" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="prioridades" sheetId="1" state="hidden" r:id="rId1"/>
-    <sheet name="ingresovolumen" sheetId="14" r:id="rId2"/>
+    <sheet name="ingresovolumen" sheetId="16" r:id="rId2"/>
     <sheet name="planificacion" sheetId="4" state="hidden" r:id="rId3"/>
     <sheet name="cierreventas" sheetId="7" state="hidden" r:id="rId4"/>
   </sheets>
@@ -72,7 +72,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="110">
   <si>
     <t xml:space="preserve"> prioridad</t>
   </si>
@@ -309,28 +309,115 @@
   </si>
   <si>
     <t>mes_planificado</t>
+  </si>
+  <si>
+    <t>volumen</t>
+  </si>
+  <si>
+    <t>ing1</t>
+  </si>
+  <si>
+    <t>ing2</t>
+  </si>
+  <si>
+    <t>ing3</t>
+  </si>
+  <si>
+    <t>ing4</t>
+  </si>
+  <si>
+    <t>ing5</t>
+  </si>
+  <si>
+    <t>ing6</t>
+  </si>
+  <si>
+    <t>ing7</t>
+  </si>
+  <si>
+    <t>ing8</t>
+  </si>
+  <si>
+    <t>ing9</t>
+  </si>
+  <si>
+    <t>ing10</t>
+  </si>
+  <si>
+    <t>ing11</t>
+  </si>
+  <si>
+    <t>ing12</t>
+  </si>
+  <si>
+    <t>ing13</t>
+  </si>
+  <si>
+    <t>ing14</t>
+  </si>
+  <si>
+    <t>ing15</t>
+  </si>
+  <si>
+    <t>ing16</t>
+  </si>
+  <si>
+    <t>ing17</t>
+  </si>
+  <si>
+    <t>ing18</t>
+  </si>
+  <si>
+    <t>ing19</t>
+  </si>
+  <si>
+    <t>ing20</t>
+  </si>
+  <si>
+    <t>ing21</t>
+  </si>
+  <si>
+    <t>ing22</t>
+  </si>
+  <si>
+    <t>ing23</t>
+  </si>
+  <si>
+    <t>ing24</t>
+  </si>
+  <si>
+    <t>ing25</t>
+  </si>
+  <si>
+    <t>ing26</t>
+  </si>
+  <si>
+    <t>ing27</t>
+  </si>
+  <si>
+    <t>ing28</t>
+  </si>
+  <si>
+    <t>ing29</t>
+  </si>
+  <si>
+    <t>ing30</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@"/>
     <numFmt numFmtId="165" formatCode="0.0000"/>
+    <numFmt numFmtId="166" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
   </numFmts>
   <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -368,6 +455,11 @@
       <b/>
       <sz val="10"/>
       <color rgb="FF0000FF"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -662,128 +754,96 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="166" fontId="7" fillId="0" borderId="1" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="76">
+  <cellXfs count="75">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="38" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="38" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="38" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="38" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="38" fontId="5" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="38" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="38" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="38" fontId="4" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="38" fontId="5" fillId="0" borderId="5" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="38" fontId="4" fillId="0" borderId="5" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="38" fontId="5" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="38" fontId="4" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="38" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="38" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="38" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="38" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="1" fontId="6" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="5" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="1" fontId="6" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="5" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="1" fontId="6" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="5" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="1" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="1" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="1" fontId="6" fillId="5" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="5" fillId="5" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="1" fontId="6" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="5" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="38" fontId="5" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="38" fontId="4" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="1" fontId="5" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="4" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="1" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="1" fontId="5" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="1" fontId="5" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="1" fontId="5" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="4" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="38" fontId="5" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="38" fontId="4" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="38" fontId="5" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="38" fontId="4" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="1" fontId="6" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="5" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="1" fontId="6" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="6" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="6" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="6" fillId="5" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="6" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="5" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="38" fontId="5" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="1" fontId="6" fillId="3" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="6" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="6" fillId="5" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="6" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="5" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="5" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="1" fontId="5" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -798,84 +858,117 @@
     <xf numFmtId="1" fontId="5" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="38" fontId="5" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="38" fontId="4" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="38" fontId="4" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="1" fontId="5" fillId="3" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="5" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="5" fillId="5" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="5" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="4" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="4" fillId="5" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="4" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="38" fontId="5" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="38" fontId="4" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="5" fillId="3" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="4" fillId="3" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="5" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="5" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="5" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="5" fillId="5" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="4" fillId="5" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="38" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="38" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="38" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="38" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="5" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="4" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="5" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="5" fillId="5" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="4" fillId="5" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="38" fontId="7" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="38" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="7" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="7" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="6" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="7" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="7" fillId="5" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="6" fillId="5" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="7" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="6" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="7" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="6" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="7" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="6" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Millares [0] 2" xfId="1" xr:uid="{2F4F9073-5384-48BE-AB6F-D849E848C3EA}"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -5272,28 +5365,28 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A4C73B43-FFAA-4A99-89BF-79633160357D}">
-  <dimension ref="A1:M30"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B517CF0D-F821-499A-8FB2-FB18AE0589FB}">
+  <dimension ref="A1:Q32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4:D30"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="2" max="2" width="16" customWidth="1"/>
-  </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B1" s="75" t="s">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="B1" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="C1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>77</v>
       </c>
-      <c r="B2" s="75">
+      <c r="B2">
         <v>1</v>
       </c>
       <c r="C2">
@@ -5302,7 +5395,7 @@
       <c r="D2">
         <v>3</v>
       </c>
-      <c r="E2" s="75">
+      <c r="E2">
         <v>4</v>
       </c>
       <c r="F2">
@@ -5311,7 +5404,7 @@
       <c r="G2">
         <v>6</v>
       </c>
-      <c r="H2" s="75">
+      <c r="H2">
         <v>7</v>
       </c>
       <c r="I2">
@@ -5320,7 +5413,7 @@
       <c r="J2">
         <v>9</v>
       </c>
-      <c r="K2" s="75">
+      <c r="K2">
         <v>10</v>
       </c>
       <c r="L2">
@@ -5329,397 +5422,1607 @@
       <c r="M2">
         <v>12</v>
       </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A3">
-        <v>1</v>
+      <c r="N2">
+        <v>13</v>
+      </c>
+      <c r="O2">
+        <v>14</v>
+      </c>
+      <c r="P2">
+        <v>15</v>
+      </c>
+      <c r="Q2">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>80</v>
       </c>
       <c r="B3">
-        <v>20</v>
+        <v>8397</v>
       </c>
       <c r="C3">
-        <v>30</v>
+        <v>10000</v>
       </c>
       <c r="D3">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A4">
-        <v>2</v>
+        <v>12000</v>
+      </c>
+      <c r="E3">
+        <v>12000</v>
+      </c>
+      <c r="F3">
+        <v>15000</v>
+      </c>
+      <c r="G3">
+        <v>15000</v>
+      </c>
+      <c r="H3">
+        <v>14000</v>
+      </c>
+      <c r="I3">
+        <v>14000</v>
+      </c>
+      <c r="J3">
+        <v>7000</v>
+      </c>
+      <c r="K3">
+        <v>7000</v>
+      </c>
+      <c r="L3">
+        <v>7000</v>
+      </c>
+      <c r="M3">
+        <v>9000</v>
+      </c>
+      <c r="N3">
+        <v>10000</v>
+      </c>
+      <c r="O3">
+        <v>14000</v>
+      </c>
+      <c r="P3">
+        <v>14000</v>
+      </c>
+      <c r="Q3">
+        <v>14000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>81</v>
       </c>
       <c r="B4">
-        <v>20</v>
+        <v>47285</v>
       </c>
       <c r="C4">
-        <v>30</v>
+        <v>60000</v>
       </c>
       <c r="D4">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A5">
-        <v>3</v>
+        <v>58000</v>
+      </c>
+      <c r="E4">
+        <v>58000</v>
+      </c>
+      <c r="F4">
+        <v>72000</v>
+      </c>
+      <c r="G4">
+        <v>72000</v>
+      </c>
+      <c r="H4">
+        <v>72000</v>
+      </c>
+      <c r="I4">
+        <v>64000</v>
+      </c>
+      <c r="J4">
+        <v>25000</v>
+      </c>
+      <c r="K4">
+        <v>18000</v>
+      </c>
+      <c r="L4">
+        <v>18000</v>
+      </c>
+      <c r="M4">
+        <v>25000</v>
+      </c>
+      <c r="N4">
+        <v>45000</v>
+      </c>
+      <c r="O4">
+        <v>65000</v>
+      </c>
+      <c r="P4">
+        <v>67000</v>
+      </c>
+      <c r="Q4">
+        <v>67000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>82</v>
       </c>
       <c r="B5">
-        <v>20</v>
+        <v>1885</v>
       </c>
       <c r="C5">
-        <v>30</v>
+        <v>25000</v>
       </c>
       <c r="D5">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A6">
-        <v>4</v>
+        <v>26000</v>
+      </c>
+      <c r="E5">
+        <v>26000</v>
+      </c>
+      <c r="F5">
+        <v>25000</v>
+      </c>
+      <c r="G5">
+        <v>25000</v>
+      </c>
+      <c r="H5">
+        <v>25000</v>
+      </c>
+      <c r="I5">
+        <v>25000</v>
+      </c>
+      <c r="J5">
+        <v>13000</v>
+      </c>
+      <c r="K5">
+        <v>11000</v>
+      </c>
+      <c r="L5">
+        <v>11000</v>
+      </c>
+      <c r="M5">
+        <v>13000</v>
+      </c>
+      <c r="N5">
+        <v>25000</v>
+      </c>
+      <c r="O5">
+        <v>25000</v>
+      </c>
+      <c r="P5">
+        <v>26000</v>
+      </c>
+      <c r="Q5">
+        <v>26000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>83</v>
       </c>
       <c r="B6">
-        <v>20</v>
+        <v>189</v>
       </c>
       <c r="C6">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="D6">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A7">
-        <v>5</v>
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="J6">
+        <v>0</v>
+      </c>
+      <c r="K6">
+        <v>0</v>
+      </c>
+      <c r="L6">
+        <v>0</v>
+      </c>
+      <c r="M6">
+        <v>0</v>
+      </c>
+      <c r="N6">
+        <v>0</v>
+      </c>
+      <c r="O6">
+        <v>0</v>
+      </c>
+      <c r="P6">
+        <v>0</v>
+      </c>
+      <c r="Q6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>84</v>
       </c>
       <c r="B7">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="C7">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="D7">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A8">
-        <v>6</v>
+        <v>0</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>16335.066666666668</v>
+      </c>
+      <c r="G7">
+        <v>16335.066666666668</v>
+      </c>
+      <c r="H7">
+        <v>16335.066666666668</v>
+      </c>
+      <c r="I7">
+        <v>33064.96666666666</v>
+      </c>
+      <c r="J7">
+        <v>33064.96666666666</v>
+      </c>
+      <c r="K7">
+        <v>33064.96666666666</v>
+      </c>
+      <c r="L7">
+        <v>1817.4</v>
+      </c>
+      <c r="M7">
+        <v>1817.4</v>
+      </c>
+      <c r="N7">
+        <v>1817.4</v>
+      </c>
+      <c r="O7">
+        <v>10434.133333333335</v>
+      </c>
+      <c r="P7">
+        <v>10434.133333333335</v>
+      </c>
+      <c r="Q7">
+        <v>10434.133333333335</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>85</v>
       </c>
       <c r="B8">
-        <v>20</v>
+        <v>36960</v>
       </c>
       <c r="C8">
-        <v>30</v>
+        <v>40800</v>
       </c>
       <c r="D8">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A9">
-        <v>7</v>
+        <v>40800</v>
+      </c>
+      <c r="E8">
+        <v>40800</v>
+      </c>
+      <c r="F8">
+        <v>18866.233333333337</v>
+      </c>
+      <c r="G8">
+        <v>18866.233333333337</v>
+      </c>
+      <c r="H8">
+        <v>18866.233333333337</v>
+      </c>
+      <c r="I8">
+        <v>1256.0666666666666</v>
+      </c>
+      <c r="J8">
+        <v>1256.0666666666666</v>
+      </c>
+      <c r="K8">
+        <v>1256.0666666666666</v>
+      </c>
+      <c r="L8">
+        <v>6781.6666666666661</v>
+      </c>
+      <c r="M8">
+        <v>6781.6666666666661</v>
+      </c>
+      <c r="N8">
+        <v>6781.6666666666661</v>
+      </c>
+      <c r="O8">
+        <v>5941.9333333333325</v>
+      </c>
+      <c r="P8">
+        <v>5941.9333333333325</v>
+      </c>
+      <c r="Q8">
+        <v>5941.9333333333325</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>86</v>
       </c>
       <c r="B9">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="C9">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="D9">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A10">
-        <v>8</v>
+        <v>0</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
+      <c r="I9">
+        <v>0</v>
+      </c>
+      <c r="J9">
+        <v>0</v>
+      </c>
+      <c r="K9">
+        <v>0</v>
+      </c>
+      <c r="L9">
+        <v>0</v>
+      </c>
+      <c r="M9">
+        <v>0</v>
+      </c>
+      <c r="N9">
+        <v>0</v>
+      </c>
+      <c r="O9">
+        <v>0</v>
+      </c>
+      <c r="P9">
+        <v>0</v>
+      </c>
+      <c r="Q9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>87</v>
       </c>
       <c r="B10">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="C10">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="D10">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A11">
-        <v>9</v>
+        <v>0</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+      <c r="H10">
+        <v>0</v>
+      </c>
+      <c r="I10">
+        <v>0</v>
+      </c>
+      <c r="J10">
+        <v>0</v>
+      </c>
+      <c r="K10">
+        <v>0</v>
+      </c>
+      <c r="L10">
+        <v>0</v>
+      </c>
+      <c r="M10">
+        <v>0</v>
+      </c>
+      <c r="N10">
+        <v>0</v>
+      </c>
+      <c r="O10">
+        <v>0</v>
+      </c>
+      <c r="P10">
+        <v>0</v>
+      </c>
+      <c r="Q10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>88</v>
       </c>
       <c r="B11">
-        <v>20</v>
+        <v>12559.999999999998</v>
       </c>
       <c r="C11">
-        <v>30</v>
+        <v>10000</v>
       </c>
       <c r="D11">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A12">
-        <v>10</v>
+        <v>10000</v>
+      </c>
+      <c r="E11">
+        <v>11000</v>
+      </c>
+      <c r="F11">
+        <v>18000</v>
+      </c>
+      <c r="G11">
+        <v>18000</v>
+      </c>
+      <c r="H11">
+        <v>18000</v>
+      </c>
+      <c r="I11">
+        <v>16000</v>
+      </c>
+      <c r="J11">
+        <v>12000</v>
+      </c>
+      <c r="K11">
+        <v>10000</v>
+      </c>
+      <c r="L11">
+        <v>10000</v>
+      </c>
+      <c r="M11">
+        <v>12000</v>
+      </c>
+      <c r="N11">
+        <v>16000</v>
+      </c>
+      <c r="O11">
+        <v>18000</v>
+      </c>
+      <c r="P11">
+        <v>18000</v>
+      </c>
+      <c r="Q11">
+        <v>18000</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>89</v>
       </c>
       <c r="B12">
-        <v>20</v>
+        <v>1523</v>
       </c>
       <c r="C12">
-        <v>30</v>
+        <v>7000</v>
       </c>
       <c r="D12">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A13">
-        <v>11</v>
+        <v>7000</v>
+      </c>
+      <c r="E12">
+        <v>7000</v>
+      </c>
+      <c r="F12">
+        <v>11000</v>
+      </c>
+      <c r="G12">
+        <v>11000</v>
+      </c>
+      <c r="H12">
+        <v>11000</v>
+      </c>
+      <c r="I12">
+        <v>11000</v>
+      </c>
+      <c r="J12">
+        <v>7000</v>
+      </c>
+      <c r="K12">
+        <v>7000</v>
+      </c>
+      <c r="L12">
+        <v>7000</v>
+      </c>
+      <c r="M12">
+        <v>7000</v>
+      </c>
+      <c r="N12">
+        <v>11000</v>
+      </c>
+      <c r="O12">
+        <v>11000</v>
+      </c>
+      <c r="P12">
+        <v>11000</v>
+      </c>
+      <c r="Q12">
+        <v>11000</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>90</v>
       </c>
       <c r="B13">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="C13">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="D13">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A14">
-        <v>12</v>
+        <v>0</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="F13">
+        <v>0</v>
+      </c>
+      <c r="G13">
+        <v>0</v>
+      </c>
+      <c r="H13">
+        <v>0</v>
+      </c>
+      <c r="I13">
+        <v>0</v>
+      </c>
+      <c r="J13">
+        <v>0</v>
+      </c>
+      <c r="K13">
+        <v>0</v>
+      </c>
+      <c r="L13">
+        <v>0</v>
+      </c>
+      <c r="M13">
+        <v>0</v>
+      </c>
+      <c r="N13">
+        <v>0</v>
+      </c>
+      <c r="O13">
+        <v>0</v>
+      </c>
+      <c r="P13">
+        <v>0</v>
+      </c>
+      <c r="Q13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>91</v>
       </c>
       <c r="B14">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="C14">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="D14">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A15">
-        <v>13</v>
+        <v>0</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
+      </c>
+      <c r="F14">
+        <v>12158.033333333333</v>
+      </c>
+      <c r="G14">
+        <v>12158.033333333333</v>
+      </c>
+      <c r="H14">
+        <v>12158.033333333333</v>
+      </c>
+      <c r="I14">
+        <v>0</v>
+      </c>
+      <c r="J14">
+        <v>0</v>
+      </c>
+      <c r="K14">
+        <v>0</v>
+      </c>
+      <c r="L14">
+        <v>0</v>
+      </c>
+      <c r="M14">
+        <v>0</v>
+      </c>
+      <c r="N14">
+        <v>0</v>
+      </c>
+      <c r="O14">
+        <v>27794.7</v>
+      </c>
+      <c r="P14">
+        <v>27794.7</v>
+      </c>
+      <c r="Q14">
+        <v>27794.7</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>92</v>
       </c>
       <c r="B15">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="C15">
-        <v>30</v>
+        <v>15000</v>
       </c>
       <c r="D15">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A16">
-        <v>14</v>
+        <v>15000</v>
+      </c>
+      <c r="E15">
+        <v>15000</v>
+      </c>
+      <c r="F15">
+        <v>9834.9333333333343</v>
+      </c>
+      <c r="G15">
+        <v>9834.9333333333343</v>
+      </c>
+      <c r="H15">
+        <v>9834.9333333333343</v>
+      </c>
+      <c r="I15">
+        <v>18089.699999999997</v>
+      </c>
+      <c r="J15">
+        <v>18089.699999999997</v>
+      </c>
+      <c r="K15">
+        <v>18089.699999999997</v>
+      </c>
+      <c r="L15">
+        <v>28929.200000000004</v>
+      </c>
+      <c r="M15">
+        <v>28929.200000000004</v>
+      </c>
+      <c r="N15">
+        <v>28929.200000000004</v>
+      </c>
+      <c r="O15">
+        <v>0</v>
+      </c>
+      <c r="P15">
+        <v>0</v>
+      </c>
+      <c r="Q15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>93</v>
       </c>
       <c r="B16">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="C16">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="D16">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A17">
-        <v>15</v>
+        <v>0</v>
+      </c>
+      <c r="E16">
+        <v>0</v>
+      </c>
+      <c r="F16">
+        <v>0</v>
+      </c>
+      <c r="G16">
+        <v>0</v>
+      </c>
+      <c r="H16">
+        <v>0</v>
+      </c>
+      <c r="I16">
+        <v>0</v>
+      </c>
+      <c r="J16">
+        <v>0</v>
+      </c>
+      <c r="K16">
+        <v>0</v>
+      </c>
+      <c r="L16">
+        <v>0</v>
+      </c>
+      <c r="M16">
+        <v>0</v>
+      </c>
+      <c r="N16">
+        <v>0</v>
+      </c>
+      <c r="O16">
+        <v>0</v>
+      </c>
+      <c r="P16">
+        <v>0</v>
+      </c>
+      <c r="Q16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>94</v>
       </c>
       <c r="B17">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="C17">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="D17">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A18">
-        <v>16</v>
+        <v>0</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <v>0</v>
+      </c>
+      <c r="K17">
+        <v>0</v>
+      </c>
+      <c r="L17">
+        <v>0</v>
+      </c>
+      <c r="M17">
+        <v>0</v>
+      </c>
+      <c r="N17">
+        <v>0</v>
+      </c>
+      <c r="O17">
+        <v>0</v>
+      </c>
+      <c r="P17">
+        <v>0</v>
+      </c>
+      <c r="Q17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>95</v>
       </c>
       <c r="B18">
-        <v>20</v>
+        <v>31000</v>
       </c>
       <c r="C18">
-        <v>30</v>
+        <v>42000</v>
       </c>
       <c r="D18">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A19">
-        <v>17</v>
+        <v>42000</v>
+      </c>
+      <c r="E18">
+        <v>39000</v>
+      </c>
+      <c r="F18">
+        <v>48000</v>
+      </c>
+      <c r="G18">
+        <v>48000</v>
+      </c>
+      <c r="H18">
+        <v>45900</v>
+      </c>
+      <c r="I18">
+        <v>36000</v>
+      </c>
+      <c r="J18">
+        <v>24899.999999999996</v>
+      </c>
+      <c r="K18">
+        <v>22500</v>
+      </c>
+      <c r="L18">
+        <v>22800</v>
+      </c>
+      <c r="M18">
+        <v>28800</v>
+      </c>
+      <c r="N18">
+        <v>38100</v>
+      </c>
+      <c r="O18">
+        <v>44100</v>
+      </c>
+      <c r="P18">
+        <v>45299.999999999993</v>
+      </c>
+      <c r="Q18">
+        <v>45600</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>96</v>
       </c>
       <c r="B19">
-        <v>20</v>
+        <v>25318.000000000004</v>
       </c>
       <c r="C19">
-        <v>30</v>
+        <v>47500</v>
       </c>
       <c r="D19">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A20">
-        <v>18</v>
+        <v>47500</v>
+      </c>
+      <c r="E19">
+        <v>47500</v>
+      </c>
+      <c r="F19">
+        <v>89664.634146341472</v>
+      </c>
+      <c r="G19">
+        <v>89664.634146341472</v>
+      </c>
+      <c r="H19">
+        <v>84948.170731707331</v>
+      </c>
+      <c r="I19">
+        <v>70487.804878048773</v>
+      </c>
+      <c r="J19">
+        <v>45557.926829268297</v>
+      </c>
+      <c r="K19">
+        <v>42759.14634146342</v>
+      </c>
+      <c r="L19">
+        <v>43432.92682926829</v>
+      </c>
+      <c r="M19">
+        <v>54317.073170731717</v>
+      </c>
+      <c r="N19">
+        <v>72612.804878048773</v>
+      </c>
+      <c r="O19">
+        <v>83496.951219512179</v>
+      </c>
+      <c r="P19">
+        <v>86192.073170731717</v>
+      </c>
+      <c r="Q19">
+        <v>86865.85365853658</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>97</v>
       </c>
       <c r="B20">
-        <v>20</v>
+        <v>87</v>
       </c>
       <c r="C20">
-        <v>30</v>
+        <v>55000</v>
       </c>
       <c r="D20">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A21">
-        <v>19</v>
+        <v>55000</v>
+      </c>
+      <c r="E20">
+        <v>55000</v>
+      </c>
+      <c r="F20">
+        <v>76164.631977162877</v>
+      </c>
+      <c r="G20">
+        <v>76164.631977162877</v>
+      </c>
+      <c r="H20">
+        <v>73428.994108510975</v>
+      </c>
+      <c r="I20">
+        <v>65027.635335051316</v>
+      </c>
+      <c r="J20">
+        <v>34348.899358790819</v>
+      </c>
+      <c r="K20">
+        <v>33239.234366730008</v>
+      </c>
+      <c r="L20">
+        <v>33447.0850578303</v>
+      </c>
+      <c r="M20">
+        <v>39185.43006134437</v>
+      </c>
+      <c r="N20">
+        <v>55330.018828470027</v>
+      </c>
+      <c r="O20">
+        <v>65042.038680792357</v>
+      </c>
+      <c r="P20">
+        <v>74206.774778526858</v>
+      </c>
+      <c r="Q20">
+        <v>74414.62546962715</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>98</v>
       </c>
       <c r="B21">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="C21">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="D21">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A22">
-        <v>20</v>
+        <v>0</v>
+      </c>
+      <c r="E21">
+        <v>0</v>
+      </c>
+      <c r="F21">
+        <v>0</v>
+      </c>
+      <c r="G21">
+        <v>0</v>
+      </c>
+      <c r="H21">
+        <v>0</v>
+      </c>
+      <c r="I21">
+        <v>0</v>
+      </c>
+      <c r="J21">
+        <v>0</v>
+      </c>
+      <c r="K21">
+        <v>0</v>
+      </c>
+      <c r="L21">
+        <v>0</v>
+      </c>
+      <c r="M21">
+        <v>0</v>
+      </c>
+      <c r="N21">
+        <v>0</v>
+      </c>
+      <c r="O21">
+        <v>0</v>
+      </c>
+      <c r="P21">
+        <v>0</v>
+      </c>
+      <c r="Q21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>99</v>
       </c>
       <c r="B22">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="C22">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="D22">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A23">
-        <v>21</v>
+        <v>0</v>
+      </c>
+      <c r="E22">
+        <v>0</v>
+      </c>
+      <c r="F22">
+        <v>0</v>
+      </c>
+      <c r="G22">
+        <v>0</v>
+      </c>
+      <c r="H22">
+        <v>0</v>
+      </c>
+      <c r="I22">
+        <v>34735.966666666674</v>
+      </c>
+      <c r="J22">
+        <v>34735.966666666674</v>
+      </c>
+      <c r="K22">
+        <v>34735.966666666674</v>
+      </c>
+      <c r="L22">
+        <v>1624.6000000000001</v>
+      </c>
+      <c r="M22">
+        <v>1624.6000000000001</v>
+      </c>
+      <c r="N22">
+        <v>1624.6000000000001</v>
+      </c>
+      <c r="O22">
+        <v>21471.766666666666</v>
+      </c>
+      <c r="P22">
+        <v>21471.766666666666</v>
+      </c>
+      <c r="Q22">
+        <v>21471.766666666666</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>100</v>
       </c>
       <c r="B23">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="C23">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="D23">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A24">
-        <v>22</v>
+        <v>0</v>
+      </c>
+      <c r="E23">
+        <v>0</v>
+      </c>
+      <c r="F23">
+        <v>19480.900000000001</v>
+      </c>
+      <c r="G23">
+        <v>19480.900000000001</v>
+      </c>
+      <c r="H23">
+        <v>19480.900000000001</v>
+      </c>
+      <c r="I23">
+        <v>18412.433333333331</v>
+      </c>
+      <c r="J23">
+        <v>18412.433333333331</v>
+      </c>
+      <c r="K23">
+        <v>18412.433333333331</v>
+      </c>
+      <c r="L23">
+        <v>27052.366666666672</v>
+      </c>
+      <c r="M23">
+        <v>27052.366666666672</v>
+      </c>
+      <c r="N23">
+        <v>27052.366666666672</v>
+      </c>
+      <c r="O23">
+        <v>79210.333333333343</v>
+      </c>
+      <c r="P23">
+        <v>79210.333333333343</v>
+      </c>
+      <c r="Q23">
+        <v>79210.333333333343</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>101</v>
       </c>
       <c r="B24">
-        <v>20</v>
+        <v>84000</v>
       </c>
       <c r="C24">
-        <v>30</v>
+        <v>118800</v>
       </c>
       <c r="D24">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A25">
-        <v>23</v>
+        <v>118800</v>
+      </c>
+      <c r="E24">
+        <v>118800</v>
+      </c>
+      <c r="F24">
+        <v>120000</v>
+      </c>
+      <c r="G24">
+        <v>120000</v>
+      </c>
+      <c r="H24">
+        <v>120000</v>
+      </c>
+      <c r="I24">
+        <v>120000</v>
+      </c>
+      <c r="J24">
+        <v>94000</v>
+      </c>
+      <c r="K24">
+        <v>94000</v>
+      </c>
+      <c r="L24">
+        <v>94000</v>
+      </c>
+      <c r="M24">
+        <v>94000</v>
+      </c>
+      <c r="N24">
+        <v>94000</v>
+      </c>
+      <c r="O24">
+        <v>120000</v>
+      </c>
+      <c r="P24">
+        <v>176443.40000000011</v>
+      </c>
+      <c r="Q24">
+        <v>176443.40000000011</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>102</v>
       </c>
       <c r="B25">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="C25">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="D25">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A26">
-        <v>24</v>
+        <v>0</v>
+      </c>
+      <c r="E25">
+        <v>0</v>
+      </c>
+      <c r="F25">
+        <v>0</v>
+      </c>
+      <c r="G25">
+        <v>0</v>
+      </c>
+      <c r="H25">
+        <v>0</v>
+      </c>
+      <c r="I25">
+        <v>0</v>
+      </c>
+      <c r="J25">
+        <v>0</v>
+      </c>
+      <c r="K25">
+        <v>0</v>
+      </c>
+      <c r="L25">
+        <v>0</v>
+      </c>
+      <c r="M25">
+        <v>0</v>
+      </c>
+      <c r="N25">
+        <v>0</v>
+      </c>
+      <c r="O25">
+        <v>0</v>
+      </c>
+      <c r="P25">
+        <v>0</v>
+      </c>
+      <c r="Q25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>103</v>
       </c>
       <c r="B26">
-        <v>20</v>
+        <v>32664</v>
       </c>
       <c r="C26">
-        <v>30</v>
+        <v>12699.999999999998</v>
       </c>
       <c r="D26">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A27">
-        <v>25</v>
+        <v>12800.000000000002</v>
+      </c>
+      <c r="E26">
+        <v>12800.000000000002</v>
+      </c>
+      <c r="F26">
+        <v>16510.067114093959</v>
+      </c>
+      <c r="G26">
+        <v>16308.724832214764</v>
+      </c>
+      <c r="H26">
+        <v>15100.671140939596</v>
+      </c>
+      <c r="I26">
+        <v>13087.24832214765</v>
+      </c>
+      <c r="J26">
+        <v>7852.3489932885914</v>
+      </c>
+      <c r="K26">
+        <v>6241.6107382550335</v>
+      </c>
+      <c r="L26">
+        <v>6241.6107382550335</v>
+      </c>
+      <c r="M26">
+        <v>8859.0604026845649</v>
+      </c>
+      <c r="N26">
+        <v>12684.563758389264</v>
+      </c>
+      <c r="O26">
+        <v>15100.671140939596</v>
+      </c>
+      <c r="P26">
+        <v>15906.040268456374</v>
+      </c>
+      <c r="Q26">
+        <v>16107.382550335567</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>104</v>
       </c>
       <c r="B27">
-        <v>20</v>
+        <v>3625</v>
       </c>
       <c r="C27">
-        <v>30</v>
+        <v>40000</v>
       </c>
       <c r="D27">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A28">
-        <v>26</v>
+        <v>40000</v>
+      </c>
+      <c r="E27">
+        <v>40000</v>
+      </c>
+      <c r="F27">
+        <v>11800.923331374128</v>
+      </c>
+      <c r="G27">
+        <v>11780.420044013723</v>
+      </c>
+      <c r="H27">
+        <v>11055.567325961263</v>
+      </c>
+      <c r="I27">
+        <v>9896.8684645771536</v>
+      </c>
+      <c r="J27">
+        <v>4123.4571276261295</v>
+      </c>
+      <c r="K27">
+        <v>3959.4308287428757</v>
+      </c>
+      <c r="L27">
+        <v>3959.4308287428757</v>
+      </c>
+      <c r="M27">
+        <v>4225.9735644281627</v>
+      </c>
+      <c r="N27">
+        <v>8096.696920406238</v>
+      </c>
+      <c r="O27">
+        <v>10305.567325961263</v>
+      </c>
+      <c r="P27">
+        <v>10387.580475402889</v>
+      </c>
+      <c r="Q27">
+        <v>10408.083762763297</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>105</v>
       </c>
       <c r="B28">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="C28">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="D28">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A29">
-        <v>27</v>
+        <v>0</v>
+      </c>
+      <c r="E28">
+        <v>0</v>
+      </c>
+      <c r="F28">
+        <v>0</v>
+      </c>
+      <c r="G28">
+        <v>0</v>
+      </c>
+      <c r="H28">
+        <v>0</v>
+      </c>
+      <c r="I28">
+        <v>0</v>
+      </c>
+      <c r="J28">
+        <v>0</v>
+      </c>
+      <c r="K28">
+        <v>0</v>
+      </c>
+      <c r="L28">
+        <v>0</v>
+      </c>
+      <c r="M28">
+        <v>0</v>
+      </c>
+      <c r="N28">
+        <v>0</v>
+      </c>
+      <c r="O28">
+        <v>0</v>
+      </c>
+      <c r="P28">
+        <v>0</v>
+      </c>
+      <c r="Q28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>106</v>
       </c>
       <c r="B29">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="C29">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="D29">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A30">
-        <v>28</v>
+        <v>0</v>
+      </c>
+      <c r="E29">
+        <v>0</v>
+      </c>
+      <c r="F29">
+        <v>0</v>
+      </c>
+      <c r="G29">
+        <v>0</v>
+      </c>
+      <c r="H29">
+        <v>0</v>
+      </c>
+      <c r="I29">
+        <v>0</v>
+      </c>
+      <c r="J29">
+        <v>0</v>
+      </c>
+      <c r="K29">
+        <v>0</v>
+      </c>
+      <c r="L29">
+        <v>5792.4333333333325</v>
+      </c>
+      <c r="M29">
+        <v>5792.4333333333325</v>
+      </c>
+      <c r="N29">
+        <v>5792.4333333333325</v>
+      </c>
+      <c r="O29">
+        <v>0</v>
+      </c>
+      <c r="P29">
+        <v>0</v>
+      </c>
+      <c r="Q29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>107</v>
       </c>
       <c r="B30">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="C30">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="D30">
-        <v>40</v>
+        <v>16500</v>
+      </c>
+      <c r="E30">
+        <v>13699.999999999998</v>
+      </c>
+      <c r="F30">
+        <v>0</v>
+      </c>
+      <c r="G30">
+        <v>0</v>
+      </c>
+      <c r="H30">
+        <v>0</v>
+      </c>
+      <c r="I30">
+        <v>0</v>
+      </c>
+      <c r="J30">
+        <v>0</v>
+      </c>
+      <c r="K30">
+        <v>0</v>
+      </c>
+      <c r="L30">
+        <v>3241.166666666667</v>
+      </c>
+      <c r="M30">
+        <v>3241.166666666667</v>
+      </c>
+      <c r="N30">
+        <v>3241.166666666667</v>
+      </c>
+      <c r="O30">
+        <v>12848.433333333332</v>
+      </c>
+      <c r="P30">
+        <v>12848.433333333332</v>
+      </c>
+      <c r="Q30">
+        <v>12848.433333333332</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>108</v>
+      </c>
+      <c r="B31">
+        <v>38088</v>
+      </c>
+      <c r="C31">
+        <v>30000</v>
+      </c>
+      <c r="D31">
+        <v>13500</v>
+      </c>
+      <c r="E31">
+        <v>16300.000000000002</v>
+      </c>
+      <c r="F31">
+        <v>70000</v>
+      </c>
+      <c r="G31">
+        <v>70000</v>
+      </c>
+      <c r="H31">
+        <v>70000</v>
+      </c>
+      <c r="I31">
+        <v>55000</v>
+      </c>
+      <c r="J31">
+        <v>55000</v>
+      </c>
+      <c r="K31">
+        <v>45000</v>
+      </c>
+      <c r="L31">
+        <v>45000</v>
+      </c>
+      <c r="M31">
+        <v>45000</v>
+      </c>
+      <c r="N31">
+        <v>45000</v>
+      </c>
+      <c r="O31">
+        <v>70000</v>
+      </c>
+      <c r="P31">
+        <v>90000</v>
+      </c>
+      <c r="Q31">
+        <v>90000</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>109</v>
+      </c>
+      <c r="B32">
+        <v>0</v>
+      </c>
+      <c r="C32">
+        <v>0</v>
+      </c>
+      <c r="D32">
+        <v>0</v>
+      </c>
+      <c r="E32">
+        <v>0</v>
+      </c>
+      <c r="F32">
+        <v>0</v>
+      </c>
+      <c r="G32">
+        <v>0</v>
+      </c>
+      <c r="H32">
+        <v>0</v>
+      </c>
+      <c r="I32">
+        <v>0</v>
+      </c>
+      <c r="J32">
+        <v>0</v>
+      </c>
+      <c r="K32">
+        <v>0</v>
+      </c>
+      <c r="L32">
+        <v>0</v>
+      </c>
+      <c r="M32">
+        <v>0</v>
+      </c>
+      <c r="N32">
+        <v>0</v>
+      </c>
+      <c r="O32">
+        <v>0</v>
+      </c>
+      <c r="P32">
+        <v>0</v>
+      </c>
+      <c r="Q32">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
